--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-625622.2413728382</v>
+        <v>-627509.82288924</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>240.7813801373067</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>163.9206648785253</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>43.99240337009294</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>78.13981344678609</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>135.1125116603682</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>270.9408514204276</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>94.63926978364057</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>67.00090002953034</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>318.1616816120097</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>119.8298937360217</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>54.70191565295233</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
     </row>
     <row r="11">
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>24.40666873704796</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>78.03981937612235</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>82.78559640792028</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>145.5209865847966</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>256.343281175864</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>227.155678889514</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>173.9898110906269</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002177</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>66.54061335012004</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002175</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>127.53370933887</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.0862448584865</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437409</v>
+        <v>36.60092856329056</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897897</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571482</v>
+        <v>55.21598883571489</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523563</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3016,7 +3016,7 @@
         <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522964</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3673,7 +3673,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789549</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.7744035713887</v>
+        <v>1571.689018870909</v>
       </c>
       <c r="C2" t="n">
-        <v>74.81188663097703</v>
+        <v>1202.726501930497</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>1202.726501930497</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2531.572661847995</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2531.572661847995</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2277.810876486087</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1946.747989142516</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1593.979333872402</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1220.513575611322</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y2" t="n">
-        <v>830.3742436355105</v>
+        <v>1958.288858935031</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>683.6922131255325</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>683.6922131255325</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124031</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U4" t="n">
-        <v>257.3478788207</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V4" t="n">
-        <v>257.3478788207</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W4" t="n">
-        <v>257.3478788207</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>257.3478788207</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>257.3478788207</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2090.6186503862</v>
+        <v>1472.812633166741</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1103.85011622633</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>745.5844176195792</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>745.5844176195792</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.6186503862</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.6186503862</v>
+        <v>1859.412473230863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,40 +4647,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>632.5337622027571</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>632.5337622027571</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>632.5337622027571</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U7" t="n">
-        <v>343.360151857325</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.106519274536</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2521.080104845663</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.311449575549</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.845691314469</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.706359338657</v>
+        <v>2070.717079250664</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4890,40 +4890,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>643.457604804549</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>643.457604804549</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5024,7 +5024,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>358.8683222506742</v>
+        <v>437.696422630596</v>
       </c>
       <c r="C13" t="n">
-        <v>358.8683222506742</v>
+        <v>268.7602397026891</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>268.7602397026891</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1420.088170177981</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1130.959531391539</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>876.2750431856521</v>
+        <v>955.103143565574</v>
       </c>
       <c r="W13" t="n">
-        <v>586.8578731486915</v>
+        <v>665.6859735286134</v>
       </c>
       <c r="X13" t="n">
-        <v>358.8683222506742</v>
+        <v>437.696422630596</v>
       </c>
       <c r="Y13" t="n">
-        <v>358.8683222506742</v>
+        <v>437.696422630596</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,7 +5261,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5270,40 +5270,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241945</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.785188168806</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799353</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947118</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119726</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119726</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909232</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>727.6476863320729</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5601,7 +5601,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>377.6878657662454</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,46 +5677,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1016.198248099061</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>761.5137598931742</v>
+        <v>1069.546079776976</v>
       </c>
       <c r="W19" t="n">
-        <v>472.0965898562135</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="X19" t="n">
-        <v>244.1070389581962</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.1070389581962</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011508</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,10 +6005,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6148,7 +6148,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799363</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,28 +6245,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>946.3889166378393</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>946.3889166378393</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>656.9717466008786</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6461,10 +6461,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>451.1914993430013</v>
+        <v>604.5641438163776</v>
       </c>
       <c r="C31" t="n">
-        <v>451.1914993430013</v>
+        <v>491.3888261698415</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430013</v>
+        <v>397.0330520388766</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430013</v>
+        <v>397.0330520388766</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6652,19 +6652,19 @@
         <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818945</v>
+        <v>902.6804289818933</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652479</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030887</v>
+        <v>730.4517433652466</v>
       </c>
     </row>
     <row r="32">
@@ -6686,46 +6686,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6838,16 +6838,16 @@
         <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,19 +6856,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7011,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.193690363625</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7081,16 +7081,16 @@
         <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010316</v>
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,10 +7172,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,22 +7394,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7433,28 +7433,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083202</v>
@@ -7564,7 +7564,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649693</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8295,7 +8295,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>122.0272939095212</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>143.5077416822669</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>97.04638377401702</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>140.7163658137808</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>29.89407122271336</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>24.98196443431399</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>219.9823849864709</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>158.7036430597073</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.54247869489366</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896552</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801201</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>53.61686283108359</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -26326,10 +26326,10 @@
         <v>195514.5298688544</v>
       </c>
       <c r="G2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="H2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="I2" t="n">
         <v>195514.5298688544</v>
@@ -26338,7 +26338,7 @@
         <v>195514.5298688544</v>
       </c>
       <c r="K2" t="n">
-        <v>203411.0686726353</v>
+        <v>203411.0686726352</v>
       </c>
       <c r="L2" t="n">
         <v>205260.4424660711</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284569</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086679</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26418,7 +26418,7 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159209</v>
@@ -26427,37 +26427,37 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007467</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007501</v>
+        <v>7916.7316560075</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007456</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="I4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="J4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="K4" t="n">
-        <v>26081.35417020404</v>
+        <v>26081.35417020405</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732795</v>
-      </c>
-      <c r="M4" t="n">
-        <v>30335.5188973279</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732795</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732794</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26482,34 +26482,34 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002542</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-615483.563527804</v>
       </c>
       <c r="C6" t="n">
-        <v>-25515.68431325947</v>
+        <v>-25515.68431325949</v>
       </c>
       <c r="D6" t="n">
         <v>-25515.68431325955</v>
       </c>
       <c r="E6" t="n">
-        <v>-429549.5642127658</v>
+        <v>-429647.023338738</v>
       </c>
       <c r="F6" t="n">
-        <v>95610.47226413031</v>
+        <v>95513.01313815812</v>
       </c>
       <c r="G6" t="n">
-        <v>95610.47226413034</v>
+        <v>95513.01313815807</v>
       </c>
       <c r="H6" t="n">
-        <v>95610.47226413037</v>
+        <v>95513.01313815813</v>
       </c>
       <c r="I6" t="n">
-        <v>95610.47226413031</v>
+        <v>95513.0131381581</v>
       </c>
       <c r="J6" t="n">
-        <v>-80812.74692846269</v>
+        <v>-80910.20605443475</v>
       </c>
       <c r="K6" t="n">
-        <v>36538.90066936275</v>
+        <v>36520.40693142836</v>
       </c>
       <c r="L6" t="n">
-        <v>66866.91094785101</v>
+        <v>66866.91094785085</v>
       </c>
       <c r="M6" t="n">
-        <v>-57591.19748511948</v>
+        <v>-57591.19748511939</v>
       </c>
       <c r="N6" t="n">
-        <v>77209.8177487178</v>
+        <v>77209.81774871777</v>
       </c>
       <c r="O6" t="n">
-        <v>77209.81774871779</v>
+        <v>77209.81774871766</v>
       </c>
       <c r="P6" t="n">
-        <v>33047.21244587199</v>
+        <v>33047.21244587206</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26750,34 +26750,34 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108348</v>
+        <v>12.92863350108356</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>141.1489899349551</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.49504793044622</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>102.6727886100649</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>208.1420607951916</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>230.1603801106394</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>135.9351943212839</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>52.02592219651726</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>219.2809742124474</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>36.52136000867324</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>207.9223647341132</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>157.4436232970666</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8578157762261</v>
       </c>
     </row>
     <row r="11">
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.20614629395277e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556433</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
